--- a/assets/template/scorcard.xlsx
+++ b/assets/template/scorcard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\stunting\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35D3E7A-D76C-4758-B5C4-1892BC799B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D62F50-A936-4C0F-AC8C-9DEFBC758416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11310" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -534,51 +534,144 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -588,21 +681,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -612,106 +690,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1008,8 +1017,8 @@
   </sheetPr>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,43 +1033,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -1083,8 +1092,8 @@
       <c r="A6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="4" t="s">
         <v>66</v>
       </c>
@@ -1107,43 +1116,43 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:9" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
     </row>
     <row r="10" spans="1:9" ht="75.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22" t="s">
+      <c r="B10" s="65"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="28" t="s">
+      <c r="E10" s="59"/>
+      <c r="F10" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="28" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1158,588 +1167,635 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="75.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="28" t="s">
+      <c r="G14" s="49"/>
+      <c r="H14" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="29"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="1:9" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="55"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:13" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="51" t="s">
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="51"/>
+      <c r="H17" s="54"/>
       <c r="I17" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="45" t="s">
+    <row r="18" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="15">
         <v>1</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="70"/>
+    </row>
+    <row r="19" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="15">
         <v>2</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="70"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="15">
         <v>3</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="70"/>
+    </row>
+    <row r="21" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="15">
         <v>4</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="70"/>
+    </row>
+    <row r="22" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="15">
         <v>5</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="70"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="15">
         <v>6</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="70"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="15">
         <v>7</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="70"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="15">
         <v>8</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="45" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="70"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="46"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="15">
         <v>1</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="70"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="15">
         <v>2</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="16"/>
-    </row>
-    <row r="28" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="70"/>
+    </row>
+    <row r="28" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="15">
         <v>3</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="16"/>
-    </row>
-    <row r="29" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="45"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47">
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="70"/>
+    </row>
+    <row r="29" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="56">
         <v>4</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="17" t="s">
+      <c r="E29" s="30"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="17" t="s">
+      <c r="H29" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="16"/>
+      <c r="I29" s="70"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="31" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
+    <row r="30" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="70"/>
+    </row>
+    <row r="31" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="15">
         <v>5</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="16"/>
-    </row>
-    <row r="32" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="70"/>
+    </row>
+    <row r="32" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="15">
         <v>6</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="70"/>
+    </row>
+    <row r="33" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="15">
         <v>7</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="16"/>
-    </row>
-    <row r="34" spans="1:9" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="70"/>
+    </row>
+    <row r="34" spans="1:9" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="15">
         <v>8</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="16"/>
-    </row>
-    <row r="35" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="45"/>
-      <c r="B35" s="46"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="70"/>
+    </row>
+    <row r="35" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="15">
         <v>9</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="16"/>
-    </row>
-    <row r="36" spans="1:9" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="45"/>
-      <c r="B36" s="46"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="70"/>
+    </row>
+    <row r="36" spans="1:9" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="15">
         <v>10</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="16"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="70"/>
     </row>
     <row r="37" spans="1:9" ht="38.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="19">
+      <c r="B37" s="22"/>
+      <c r="C37" s="17">
         <v>1</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="20"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="73"/>
     </row>
     <row r="38" spans="1:9" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="36"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:9" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="60" t="s">
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="61"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="71" t="s">
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I39" s="72"/>
+      <c r="I39" s="36"/>
     </row>
     <row r="40" spans="1:9" ht="75.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="F40" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="74"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="38"/>
     </row>
     <row r="41" spans="1:9" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8">
         <v>1</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="55"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="78"/>
     </row>
     <row r="42" spans="1:9" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8">
         <v>2</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="55"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="78"/>
     </row>
     <row r="43" spans="1:9" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="55"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="78"/>
     </row>
     <row r="44" spans="1:9" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="36"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="20"/>
     </row>
     <row r="45" spans="1:9" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58" t="s">
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="61" t="s">
+      <c r="F45" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="62"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="47"/>
     </row>
     <row r="46" spans="1:9" ht="75.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="37" t="s">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="28" t="s">
+      <c r="G46" s="49"/>
+      <c r="H46" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="I46" s="29"/>
+      <c r="I46" s="49"/>
     </row>
     <row r="47" spans="1:9" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8">
         <v>1</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="55"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="27"/>
     </row>
     <row r="48" spans="1:9" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8">
         <v>2</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="55"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="27"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A26:B36"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A18:B25"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
@@ -1756,69 +1812,22 @@
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A26:B36"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A18:B25"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/assets/template/scorcard.xlsx
+++ b/assets/template/scorcard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\stunting\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D62F50-A936-4C0F-AC8C-9DEFBC758416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A3585D-C7DD-4541-B9F2-0CD507790D8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-135" windowWidth="20730" windowHeight="11310" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F SC Konvergensi Desa" sheetId="46" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -234,17 +234,20 @@
     <t>: Banyumas</t>
   </si>
   <si>
-    <t>: Linggasari</t>
-  </si>
-  <si>
     <t>GIZI KURANG/ GIZI BURUK/STUNTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: </t>
+  </si>
+  <si>
+    <t>:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,14 +259,6 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -493,234 +488,231 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1017,8 +1009,8 @@
   </sheetPr>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:I43"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,43 +1025,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="5" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -1092,16 +1084,18 @@
       <c r="A6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
@@ -1112,47 +1106,49 @@
       <c r="F7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:9" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9" ht="75.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="58" t="s">
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="48" t="s">
+      <c r="E10" s="70"/>
+      <c r="F10" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="48" t="s">
+      <c r="G10" s="59"/>
+      <c r="H10" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="49"/>
+      <c r="I10" s="52"/>
     </row>
     <row r="11" spans="1:9" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1163,585 +1159,588 @@
         <v>28</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="52"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:9" ht="75.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="59"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="48" t="s">
+      <c r="G14" s="52"/>
+      <c r="H14" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="49"/>
+      <c r="I14" s="52"/>
     </row>
     <row r="15" spans="1:9" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="58"/>
     </row>
     <row r="17" spans="1:13" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="69"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="54" t="s">
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="14" t="s">
+      <c r="H17" s="77"/>
+      <c r="I17" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="15">
+      <c r="B18" s="23"/>
+      <c r="C18" s="14">
         <v>1</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="70"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="14">
         <v>2</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="70"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="15">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="14">
         <v>3</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="70"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="15">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="14">
         <v>4</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="70"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="15">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="14">
         <v>5</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="70"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="15">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="14">
         <v>6</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="70"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="15">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="14">
         <v>7</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="70"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="15">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="14">
         <v>8</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="70"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="15">
+      <c r="B26" s="23"/>
+      <c r="C26" s="14">
         <v>1</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="70"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="15">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="14">
         <v>2</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="70"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="17"/>
     </row>
     <row r="28" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="15">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="14">
         <v>3</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="70"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="56">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="63">
         <v>4</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="16" t="s">
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="70"/>
+      <c r="I29" s="17"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
     <row r="30" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="70"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:13" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="15">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="14">
         <v>5</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="70"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="17"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="15">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="14">
         <v>6</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="70"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="17"/>
     </row>
     <row r="33" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="15">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="14">
         <v>7</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="70"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:9" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="15">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="14">
         <v>8</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="70"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="15">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="14">
         <v>9</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="70"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:9" ht="35.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="15">
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="14">
         <v>10</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="70"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="38.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="17">
+      <c r="B37" s="62"/>
+      <c r="C37" s="16">
         <v>1</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="73"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="20"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="58"/>
     </row>
     <row r="39" spans="1:9" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="45" t="s">
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="35" t="s">
+      <c r="F39" s="49"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="I39" s="36"/>
+      <c r="I39" s="40"/>
     </row>
     <row r="40" spans="1:9" ht="75.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="49"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="38"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="42"/>
     </row>
     <row r="41" spans="1:9" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8">
         <v>1</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="78"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="31"/>
     </row>
     <row r="42" spans="1:9" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8">
         <v>2</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="78"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="31"/>
     </row>
     <row r="43" spans="1:9" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="78"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="31"/>
     </row>
     <row r="44" spans="1:9" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="20"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="58"/>
     </row>
     <row r="45" spans="1:9" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42" t="s">
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="46" t="s">
+      <c r="F45" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="47"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="50"/>
     </row>
     <row r="46" spans="1:9" ht="75.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="53" t="s">
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="49"/>
-      <c r="H46" s="48" t="s">
+      <c r="G46" s="52"/>
+      <c r="H46" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="I46" s="49"/>
+      <c r="I46" s="52"/>
     </row>
     <row r="47" spans="1:9" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8">
         <v>1</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="27"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="25"/>
     </row>
     <row r="48" spans="1:9" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8">
         <v>2</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="27"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="25"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A18:B25"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A13:I13"/>
@@ -1749,9 +1748,15 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A10:C11"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A14:C14"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D24:F24"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="D32:F32"/>
@@ -1764,17 +1769,6 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A18:B25"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="F48:G48"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:I43"/>
@@ -1789,6 +1783,8 @@
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="F45:I45"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="F48:G48"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:D40"/>
     <mergeCell ref="B41:D41"/>
@@ -1812,9 +1808,6 @@
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="H41:I41"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="G22:H22"/>
@@ -1827,7 +1820,10 @@
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
